--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Assessment</t>
   </si>
@@ -20,6 +20,9 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Topics</t>
+  </si>
+  <si>
     <t>Venue</t>
   </si>
   <si>
@@ -29,7 +32,10 @@
     <t>HIT 122: Test 1</t>
   </si>
   <si>
-    <t>Thursday, 12 March 2020</t>
+    <t>12 March 2020</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
   </si>
   <si>
     <t>Electronic Hall</t>
@@ -39,6 +45,9 @@
   </si>
   <si>
     <t>ISS 126: Test 1</t>
+  </si>
+  <si>
+    <t>Divisibility, Modular Arithmetic</t>
   </si>
   <si>
     <t>S101</t>
@@ -63,7 +72,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -75,18 +84,13 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +100,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -172,22 +170,22 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -210,7 +208,6 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -227,10 +224,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="5E5E5E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="535353"/>
+        <a:srgbClr val="D5D5D5"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -407,14 +404,11 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -423,27 +417,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -700,10 +694,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -994,7 +988,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1275,16 +1269,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6094" style="1" customWidth="1"/>
-    <col min="3" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1300,77 +1294,92 @@
       <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s" s="4">
+        <v>9</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" ht="20.05" customHeight="1">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="6">
+        <v>13</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="6">
+        <v>15</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s" s="6">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="6">
+        <v>15</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="7"/>
@@ -1380,6 +1389,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="7"/>
@@ -1389,6 +1399,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="7"/>
@@ -1398,6 +1409,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="7"/>
@@ -1407,6 +1419,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="7"/>
@@ -1416,6 +1429,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="7"/>
@@ -1425,6 +1439,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="7"/>
@@ -1434,6 +1449,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="7"/>
@@ -1443,6 +1459,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="7"/>
@@ -1452,6 +1469,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="7"/>
@@ -1461,6 +1479,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="7"/>
@@ -1470,6 +1489,7 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="7"/>
@@ -1479,6 +1499,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="7"/>
@@ -1488,6 +1509,7 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Assessment</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>14:00</t>
+  </si>
+  <si>
+    <t>HIT 122: Test 2</t>
+  </si>
+  <si>
+    <t>2 April 2020</t>
+  </si>
+  <si>
+    <t>Ordinary Differential Equations</t>
+  </si>
+  <si>
+    <t>ISS 126: Test 2</t>
+  </si>
+  <si>
+    <t>17 April 2020</t>
+  </si>
+  <si>
+    <t>Primes, Functions, Congruences</t>
   </si>
   <si>
     <t>HIT 121: Test 1</t>
@@ -1269,7 +1287,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1341,7 +1359,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="6">
         <v>14</v>
       </c>
@@ -1349,54 +1367,74 @@
         <v>15</v>
       </c>
       <c r="C4" t="s" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="A6" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="A7" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -1511,6 +1549,26 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Assessment</t>
   </si>
@@ -56,6 +56,27 @@
     <t>14:00</t>
   </si>
   <si>
+    <t>ICS 226: Test 1</t>
+  </si>
+  <si>
+    <t>16 March 2020</t>
+  </si>
+  <si>
+    <t>Errors, Nonlinear Equations</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>ICS 226: Test 2</t>
+  </si>
+  <si>
+    <t>1 April 2020</t>
+  </si>
+  <si>
+    <t>Interpolation, Approximation, Numerical Differentiation</t>
+  </si>
+  <si>
     <t>HIT 122: Test 2</t>
   </si>
   <si>
@@ -78,9 +99,6 @@
   </si>
   <si>
     <t>TBA</t>
-  </si>
-  <si>
-    <t>ICS 226: Test 1</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1305,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1370,81 +1388,91 @@
         <v>16</v>
       </c>
       <c r="D4" t="s" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" ht="32.05" customHeight="1">
+    <row r="5" ht="56.05" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s" s="6">
         <v>12</v>
       </c>
       <c r="E5" t="s" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
+    <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="A8" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="6">
+        <v>28</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1569,6 +1597,16 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Assessment</t>
   </si>
@@ -68,6 +68,15 @@
     <t>08:00</t>
   </si>
   <si>
+    <t>HIT 121: Test 1</t>
+  </si>
+  <si>
+    <t>24 March 2020</t>
+  </si>
+  <si>
+    <t>Multi Purpose Hall</t>
+  </si>
+  <si>
     <t>ICS 226: Test 2</t>
   </si>
   <si>
@@ -93,12 +102,6 @@
   </si>
   <si>
     <t>Primes, Functions, Congruences</t>
-  </si>
-  <si>
-    <t>HIT 121: Test 1</t>
-  </si>
-  <si>
-    <t>TBA</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1400,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" ht="56.05" customHeight="1">
+    <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="6">
         <v>18</v>
       </c>
@@ -1405,10 +1408,10 @@
         <v>19</v>
       </c>
       <c r="C5" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="6">
         <v>20</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>12</v>
       </c>
       <c r="E5" t="s" s="6">
         <v>17</v>
@@ -1417,7 +1420,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" ht="32.05" customHeight="1">
+    <row r="6" ht="56.05" customHeight="1">
       <c r="A6" t="s" s="6">
         <v>21</v>
       </c>
@@ -1428,10 +1431,10 @@
         <v>23</v>
       </c>
       <c r="D6" t="s" s="6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1448,16 +1451,16 @@
         <v>26</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
+    <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="6">
         <v>27</v>
       </c>
@@ -1465,13 +1468,13 @@
         <v>28</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s" s="6">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Assessment</t>
   </si>
@@ -71,34 +71,22 @@
     <t>HIT 121: Test 1</t>
   </si>
   <si>
-    <t>24 March 2020</t>
-  </si>
-  <si>
-    <t>Multi Purpose Hall</t>
+    <t>TBA</t>
   </si>
   <si>
     <t>ICS 226: Test 2</t>
   </si>
   <si>
-    <t>1 April 2020</t>
-  </si>
-  <si>
     <t>Interpolation, Approximation, Numerical Differentiation</t>
   </si>
   <si>
     <t>HIT 122: Test 2</t>
   </si>
   <si>
-    <t>2 April 2020</t>
-  </si>
-  <si>
     <t>Ordinary Differential Equations</t>
   </si>
   <si>
     <t>ISS 126: Test 2</t>
-  </si>
-  <si>
-    <t>17 April 2020</t>
   </si>
   <si>
     <t>Primes, Functions, Congruences</t>
@@ -1411,7 +1399,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="6">
         <v>17</v>
@@ -1422,19 +1410,19 @@
     </row>
     <row r="6" ht="56.05" customHeight="1">
       <c r="A6" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>23</v>
-      </c>
       <c r="D6" t="s" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1442,19 +1430,19 @@
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1462,19 +1450,19 @@
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Assessment</t>
   </si>
@@ -80,10 +80,19 @@
     <t>Interpolation, Approximation, Numerical Differentiation</t>
   </si>
   <si>
-    <t>HIT 122: Test 2</t>
+    <t>HIT 122: Quiz 1</t>
+  </si>
+  <si>
+    <t>2 April 2020</t>
   </si>
   <si>
     <t>Ordinary Differential Equations</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>00:00 to 23:59</t>
   </si>
   <si>
     <t>ISS 126: Test 2</t>
@@ -1433,16 +1442,16 @@
         <v>22</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1450,13 +1459,13 @@
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s" s="6">
         <v>19</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s" s="6">
         <v>19</v>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Assessment</t>
   </si>
@@ -68,15 +68,24 @@
     <t>08:00</t>
   </si>
   <si>
-    <t>HIT 121: Test 1</t>
+    <t>HIT 121: Quiz 1</t>
+  </si>
+  <si>
+    <t>31 March 2020</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>00:00 to 23:59</t>
+  </si>
+  <si>
+    <t>ICS 226: Test 2</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>ICS 226: Test 2</t>
-  </si>
-  <si>
     <t>Interpolation, Approximation, Numerical Differentiation</t>
   </si>
   <si>
@@ -87,12 +96,6 @@
   </si>
   <si>
     <t>Ordinary Differential Equations</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>00:00 to 23:59</t>
   </si>
   <si>
     <t>ISS 126: Test 2</t>
@@ -1408,10 +1411,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s" s="6">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1419,19 +1422,19 @@
     </row>
     <row r="6" ht="56.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1439,19 +1442,19 @@
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s" s="6">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1459,19 +1462,19 @@
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Assessment</t>
   </si>
@@ -98,7 +98,10 @@
     <t>Ordinary Differential Equations</t>
   </si>
   <si>
-    <t>ISS 126: Test 2</t>
+    <t>ISS 126: Quiz 1</t>
+  </si>
+  <si>
+    <t>17 April 2020</t>
   </si>
   <si>
     <t>Primes, Functions, Congruences</t>
@@ -1465,16 +1468,16 @@
         <v>28</v>
       </c>
       <c r="B8" t="s" s="6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s" s="6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Assessment</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Primes, Functions, Congruences</t>
+  </si>
+  <si>
+    <t>HIT 121: Quiz 2</t>
+  </si>
+  <si>
+    <t>23 April 2020</t>
+  </si>
+  <si>
+    <t>HIT 122: Quiz 2</t>
+  </si>
+  <si>
+    <t>30 April 2020</t>
+  </si>
+  <si>
+    <t>Vector Calculus</t>
   </si>
 </sst>
 </file>
@@ -205,7 +220,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -229,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1483,22 +1501,42 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+    <row r="9" ht="32.05" customHeight="1">
+      <c r="A9" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s" s="6">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Assessment</t>
   </si>
@@ -98,13 +98,16 @@
     <t>Ordinary Differential Equations</t>
   </si>
   <si>
-    <t>ISS 126: Quiz 1</t>
+    <t>ISS 126: Test 2</t>
   </si>
   <si>
     <t>17 April 2020</t>
   </si>
   <si>
     <t>Primes, Functions, Congruences</t>
+  </si>
+  <si>
+    <t>R Markdown</t>
   </si>
   <si>
     <t>HIT 121: Quiz 2</t>
@@ -1492,7 +1495,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s" s="6">
         <v>21</v>
@@ -1503,10 +1506,10 @@
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="6">
         <v>27</v>
@@ -1523,13 +1526,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s" s="6">
         <v>20</v>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -98,22 +98,22 @@
     <t>Ordinary Differential Equations</t>
   </si>
   <si>
+    <t>HIT 121: Quiz 2</t>
+  </si>
+  <si>
+    <t>23 April 2020</t>
+  </si>
+  <si>
     <t>ISS 126: Test 2</t>
   </si>
   <si>
-    <t>17 April 2020</t>
+    <t>24 April 2020</t>
   </si>
   <si>
     <t>Primes, Functions, Congruences</t>
   </si>
   <si>
     <t>R Markdown</t>
-  </si>
-  <si>
-    <t>HIT 121: Quiz 2</t>
-  </si>
-  <si>
-    <t>23 April 2020</t>
   </si>
   <si>
     <t>HIT 122: Quiz 2</t>
@@ -1488,14 +1488,14 @@
       <c r="A8" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" t="s" s="8">
         <v>29</v>
       </c>
       <c r="C8" t="s" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s" s="6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s" s="6">
         <v>21</v>
@@ -1506,16 +1506,16 @@
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="D9" t="s" s="6">
         <v>33</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>20</v>
       </c>
       <c r="E9" t="s" s="6">
         <v>21</v>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Assessment</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>Vector Calculus</t>
+  </si>
+  <si>
+    <t>HIT 121: Quiz 3</t>
+  </si>
+  <si>
+    <t>5 May 20</t>
+  </si>
+  <si>
+    <t>ISS 126: Test 3</t>
+  </si>
+  <si>
+    <t>15 May 2020</t>
+  </si>
+  <si>
+    <t>Cryptography, CRT</t>
+  </si>
+  <si>
+    <t>HIT 122: Quiz 3</t>
+  </si>
+  <si>
+    <t>22 May 2020</t>
+  </si>
+  <si>
+    <t>Laplace Transforms</t>
   </si>
 </sst>
 </file>
@@ -1545,31 +1569,61 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" t="s" s="6">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" t="s" s="6">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Assessment</t>
   </si>
@@ -134,16 +134,13 @@
     <t>ISS 126: Test 3</t>
   </si>
   <si>
-    <t>15 May 2020</t>
+    <t>22 May 2020</t>
   </si>
   <si>
     <t>Cryptography, CRT</t>
   </si>
   <si>
     <t>HIT 122: Quiz 3</t>
-  </si>
-  <si>
-    <t>22 May 2020</t>
   </si>
   <si>
     <t>Laplace Transforms</t>
@@ -1613,10 +1610,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="6">
         <v>43</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>44</v>
       </c>
       <c r="D13" t="s" s="6">
         <v>20</v>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Assessment</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Laplace Transforms</t>
+  </si>
+  <si>
+    <t>HIT 121: Quiz 4</t>
+  </si>
+  <si>
+    <t>26 May 2020</t>
   </si>
 </sst>
 </file>
@@ -1626,11 +1632,21 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="6">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="6">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s" s="6">
+        <v>21</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -1602,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="s" s="6">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s" s="6">
         <v>21</v>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Assessment</t>
   </si>
@@ -29,13 +29,13 @@
     <t>Time</t>
   </si>
   <si>
-    <t>HIT 122: Test 1</t>
-  </si>
-  <si>
-    <t>12 March 2020</t>
-  </si>
-  <si>
-    <t>Linear Algebra</t>
+    <t>ICS/IIT/ISE: Test 1</t>
+  </si>
+  <si>
+    <t>04 November 2020</t>
+  </si>
+  <si>
+    <t>Linear Algebra, Logic</t>
   </si>
   <si>
     <t>Electronic Hall</t>
@@ -44,112 +44,28 @@
     <t>10:15</t>
   </si>
   <si>
-    <t>ISS 126: Test 1</t>
-  </si>
-  <si>
-    <t>Divisibility, Modular Arithmetic</t>
-  </si>
-  <si>
-    <t>S101</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>ICS 226: Test 1</t>
-  </si>
-  <si>
-    <t>16 March 2020</t>
-  </si>
-  <si>
-    <t>Errors, Nonlinear Equations</t>
+    <t>ICS/IIT/ISE: Test 2</t>
+  </si>
+  <si>
+    <t>18 November 2020</t>
+  </si>
+  <si>
+    <t>Combinatorics, Graphs, Trees</t>
+  </si>
+  <si>
+    <t>ICS/IIT/ISE: Test 3</t>
+  </si>
+  <si>
+    <t>09 December 2020</t>
+  </si>
+  <si>
+    <t>Number Theory</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
   <si>
     <t>08:00</t>
-  </si>
-  <si>
-    <t>HIT 121: Quiz 1</t>
-  </si>
-  <si>
-    <t>31 March 2020</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>00:00 to 23:59</t>
-  </si>
-  <si>
-    <t>ICS 226: Test 2</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
-    <t>Interpolation, Approximation, Numerical Differentiation</t>
-  </si>
-  <si>
-    <t>HIT 122: Quiz 1</t>
-  </si>
-  <si>
-    <t>2 April 2020</t>
-  </si>
-  <si>
-    <t>Ordinary Differential Equations</t>
-  </si>
-  <si>
-    <t>HIT 121: Quiz 2</t>
-  </si>
-  <si>
-    <t>23 April 2020</t>
-  </si>
-  <si>
-    <t>ISS 126: Test 2</t>
-  </si>
-  <si>
-    <t>24 April 2020</t>
-  </si>
-  <si>
-    <t>Primes, Functions, Congruences</t>
-  </si>
-  <si>
-    <t>R Markdown</t>
-  </si>
-  <si>
-    <t>HIT 122: Quiz 2</t>
-  </si>
-  <si>
-    <t>30 April 2020</t>
-  </si>
-  <si>
-    <t>Vector Calculus</t>
-  </si>
-  <si>
-    <t>HIT 121: Quiz 3</t>
-  </si>
-  <si>
-    <t>5 May 20</t>
-  </si>
-  <si>
-    <t>ISS 126: Test 3</t>
-  </si>
-  <si>
-    <t>22 May 2020</t>
-  </si>
-  <si>
-    <t>Cryptography, CRT</t>
-  </si>
-  <si>
-    <t>HIT 122: Quiz 3</t>
-  </si>
-  <si>
-    <t>Laplace Transforms</t>
-  </si>
-  <si>
-    <t>HIT 121: Quiz 4</t>
-  </si>
-  <si>
-    <t>26 May 2020</t>
   </si>
 </sst>
 </file>
@@ -250,7 +166,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -274,9 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1359,7 +1272,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1391,7 +1304,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="4">
         <v>5</v>
       </c>
@@ -1416,33 +1329,33 @@
         <v>10</v>
       </c>
       <c r="B3" t="s" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s" s="6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" ht="32.05" customHeight="1">
+    <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="6">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="C4" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="D4" t="s" s="6">
         <v>16</v>
-      </c>
-      <c r="D4" t="s" s="6">
-        <v>12</v>
       </c>
       <c r="E4" t="s" s="6">
         <v>17</v>
@@ -1450,276 +1363,6 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="6">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="6">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" ht="56.05" customHeight="1">
-      <c r="A6" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s" s="6">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" ht="32.05" customHeight="1">
-      <c r="A8" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s" s="6">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" t="s" s="6">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s" s="6">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s" s="6">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="6">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s" s="6">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="6">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s" s="6">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s" s="6">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s" s="6">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="6">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="6">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s" s="6">
-        <v>45</v>
-      </c>
-      <c r="C14" t="s" s="6">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s" s="6">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s" s="6">
-        <v>21</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -29,7 +29,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>ICS/IIT/ISE: Test 1</t>
+    <t>ICS/IIT/ISE 114: Test 1</t>
   </si>
   <si>
     <t>04 November 2020</t>
@@ -44,7 +44,7 @@
     <t>10:15</t>
   </si>
   <si>
-    <t>ICS/IIT/ISE: Test 2</t>
+    <t>ICS/IIT/ISE 114: Test 2</t>
   </si>
   <si>
     <t>18 November 2020</t>
@@ -53,7 +53,7 @@
     <t>Combinatorics, Graphs, Trees</t>
   </si>
   <si>
-    <t>ICS/IIT/ISE: Test 3</t>
+    <t>ICS/IIT/ISE 114: Test 3</t>
   </si>
   <si>
     <t>09 December 2020</t>
@@ -1344,7 +1344,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="6">
         <v>13</v>
       </c>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Assessment</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>08:00</t>
+  </si>
+  <si>
+    <t>ICS/ISE 215: AS 1</t>
+  </si>
+  <si>
+    <t>30 October 2020</t>
+  </si>
+  <si>
+    <t>Linear Programming</t>
+  </si>
+  <si>
+    <t>16:00</t>
   </si>
 </sst>
 </file>
@@ -166,7 +178,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -176,19 +188,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1275,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1280,8 +1283,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1300,69 +1303,74 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="D3" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="A4" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="6">
+      <c r="C4" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="6">
+      <c r="D4" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="6">
+      <c r="E4" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+    </row>
+    <row r="5" ht="32.05" customHeight="1">
+      <c r="A5" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Assessment</t>
   </si>
@@ -29,6 +29,21 @@
     <t>Time</t>
   </si>
   <si>
+    <t>ICS/ISE 215: AS 1</t>
+  </si>
+  <si>
+    <t>30 October 2020</t>
+  </si>
+  <si>
+    <t>Linear Programming</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>ICS/IIT/ISE 114: Test 1</t>
   </si>
   <si>
@@ -44,10 +59,13 @@
     <t>10:15</t>
   </si>
   <si>
+    <t>13 November 2020</t>
+  </si>
+  <si>
     <t>ICS/IIT/ISE 114: Test 2</t>
   </si>
   <si>
-    <t>18 November 2020</t>
+    <t>19 November 2020</t>
   </si>
   <si>
     <t>Combinatorics, Graphs, Trees</t>
@@ -62,22 +80,7 @@
     <t>Number Theory</t>
   </si>
   <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>08:00</t>
-  </si>
-  <si>
-    <t>ICS/ISE 215: AS 1</t>
-  </si>
-  <si>
-    <t>30 October 2020</t>
-  </si>
-  <si>
-    <t>Linear Programming</t>
-  </si>
-  <si>
-    <t>16:00</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1278,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1332,44 +1335,61 @@
         <v>12</v>
       </c>
       <c r="D3" t="s" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="D5" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="32.05" customHeight="1">
+      <c r="A6" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="B6" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="4">
+      <c r="C6" t="s" s="4">
         <v>21</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Assessment</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>10:15</t>
+  </si>
+  <si>
+    <t>ICS/ISE 215: AS 2</t>
   </si>
   <si>
     <t>13 November 2020</t>
@@ -1343,10 +1346,10 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="4">
         <v>7</v>
@@ -1360,13 +1363,13 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s" s="4">
         <v>13</v>
@@ -1377,19 +1380,19 @@
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s" s="4">
         <v>8</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -74,6 +74,9 @@
     <t>Combinatorics, Graphs, Trees</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>ICS/IIT/ISE 114: Test 3</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>Number Theory</t>
-  </si>
-  <si>
-    <t>08:00</t>
   </si>
 </sst>
 </file>
@@ -1375,24 +1375,24 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s" s="4">
         <v>8</v>
       </c>
       <c r="E6" t="s" s="4">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Assessment</t>
   </si>
@@ -77,6 +77,45 @@
     <t>08:00</t>
   </si>
   <si>
+    <t>ICS/ISE 215: Quiz 1</t>
+  </si>
+  <si>
+    <t>26 November 2020</t>
+  </si>
+  <si>
+    <t>Decision Analysis</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SST 216: Assignment </t>
+  </si>
+  <si>
+    <t>01 December 2020</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>SST 216 Test 1</t>
+  </si>
+  <si>
+    <t>ICS/ISE 215: Test 1</t>
+  </si>
+  <si>
+    <t>02 December 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer Programming, Transportation </t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
     <t>ICS/IIT/ISE 114: Test 3</t>
   </si>
   <si>
@@ -84,6 +123,15 @@
   </si>
   <si>
     <t>Number Theory</t>
+  </si>
+  <si>
+    <t>ICS/IIT/ISE 114: AS 1</t>
+  </si>
+  <si>
+    <t>10 December 2020</t>
+  </si>
+  <si>
+    <t>00:00</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1329,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1378,7 +1426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="32.05" customHeight="1">
+    <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="4">
         <v>21</v>
       </c>
@@ -1392,7 +1440,92 @@
         <v>8</v>
       </c>
       <c r="E6" t="s" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="32.05" customHeight="1">
+      <c r="A7" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="4">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s" s="4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s" s="4">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s" s="4">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Assessment</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>SST 216 Test 1</t>
+  </si>
+  <si>
+    <t>Measures of location and dispersion, probability &amp; probability distributions, sampling distributions, non parametric statistics (chisquare tests, Kruskal Wallis test, Wilcoxon rank sum test)</t>
+  </si>
+  <si>
+    <t>Multipurpose Hall</t>
+  </si>
+  <si>
+    <t>14:00</t>
   </si>
   <si>
     <t>ICS/ISE 215: Test 1</t>
@@ -141,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -156,6 +165,11 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -232,7 +246,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -247,6 +261,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -268,6 +285,7 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff212121"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1460,35 +1478,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
+    <row r="8" ht="164.05" customHeight="1">
       <c r="A8" t="s" s="4">
         <v>29</v>
       </c>
       <c r="B8" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="4">
-        <v>28</v>
+      <c r="C8" t="s" s="5">
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="44.05" customHeight="1">
       <c r="A9" t="s" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="4">
         <v>20</v>
@@ -1496,13 +1514,13 @@
     </row>
     <row r="10" ht="32.05" customHeight="1">
       <c r="A10" t="s" s="4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s" s="4">
         <v>8</v>
@@ -1513,10 +1531,10 @@
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="4">
         <v>27</v>
@@ -1525,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Assessment</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Number Theory</t>
+  </si>
+  <si>
+    <t>10:00</t>
   </si>
   <si>
     <t>ICS/IIT/ISE 114: AS 1</t>
@@ -1526,15 +1529,15 @@
         <v>8</v>
       </c>
       <c r="E10" t="s" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" ht="32.05" customHeight="1">
       <c r="A11" t="s" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s" s="4">
         <v>27</v>
@@ -1543,7 +1546,7 @@
         <v>8</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
@@ -12,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Assessment</t>
   </si>
@@ -101,49 +100,43 @@
     <t>-</t>
   </si>
   <si>
+    <t>ICS/ISE 215: Test 1</t>
+  </si>
+  <si>
+    <t>02 December 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer Programming, Transportation </t>
+  </si>
+  <si>
+    <t>N109</t>
+  </si>
+  <si>
+    <t>ICS/IIT/ISE 114: Test 3</t>
+  </si>
+  <si>
+    <t>09 December 2020</t>
+  </si>
+  <si>
+    <t>Number Theory</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>ICS/IIT/ISE 114: AS 1</t>
+  </si>
+  <si>
+    <t>10 December 2020</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
     <t>SST 216 Test 1</t>
   </si>
   <si>
-    <t>Measures of location and dispersion, probability &amp; probability distributions, sampling distributions, non parametric statistics (chisquare tests, Kruskal Wallis test, Wilcoxon rank sum test)</t>
-  </si>
-  <si>
-    <t>Multipurpose Hall</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>ICS/ISE 215: Test 1</t>
-  </si>
-  <si>
-    <t>02 December 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer Programming, Transportation </t>
-  </si>
-  <si>
-    <t>N109</t>
-  </si>
-  <si>
-    <t>ICS/IIT/ISE 114: Test 3</t>
-  </si>
-  <si>
-    <t>09 December 2020</t>
-  </si>
-  <si>
-    <t>Number Theory</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>ICS/IIT/ISE 114: AS 1</t>
-  </si>
-  <si>
-    <t>10 December 2020</t>
-  </si>
-  <si>
-    <t>00:00</t>
+    <t>09 February 2021</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1352,7 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1">
@@ -1481,24 +1474,24 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="164.05" customHeight="1">
+    <row r="8" ht="44.05" customHeight="1">
       <c r="A8" t="s" s="4">
         <v>29</v>
       </c>
       <c r="B8" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s" s="5">
         <v>30</v>
       </c>
+      <c r="C8" t="s" s="4">
+        <v>31</v>
+      </c>
       <c r="D8" t="s" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s" s="4">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" ht="44.05" customHeight="1">
+    <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="4">
         <v>33</v>
       </c>
@@ -1509,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="D9" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s" s="4">
         <v>36</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
@@ -1523,30 +1516,30 @@
         <v>38</v>
       </c>
       <c r="C10" t="s" s="4">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s" s="4">
         <v>8</v>
       </c>
       <c r="E10" t="s" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" ht="32.05" customHeight="1">
-      <c r="A11" t="s" s="4">
+      <c r="B11" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="B11" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" t="s" s="5">
         <v>27</v>
       </c>
       <c r="D11" t="s" s="4">
         <v>8</v>
       </c>
       <c r="E11" t="s" s="4">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Assessment</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>09 February 2021</t>
+  </si>
+  <si>
+    <t>SST 216 Test 2</t>
+  </si>
+  <si>
+    <t>23 February 2021</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1349,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1542,6 +1548,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s" s="4">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/T1.xlsx
+++ b/T1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Assessment</t>
   </si>
@@ -28,121 +28,40 @@
     <t>Time</t>
   </si>
   <si>
-    <t>ICS/ISE 215: AS 1</t>
-  </si>
-  <si>
-    <t>30 October 2020</t>
-  </si>
-  <si>
-    <t>Linear Programming</t>
+    <t>HIT 1202</t>
+  </si>
+  <si>
+    <t>29 April 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear Algebra </t>
+  </si>
+  <si>
+    <t>Multipurpose Hall</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>HIT 1203</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>Electronic Hall</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>27 May 2021</t>
+  </si>
+  <si>
+    <t>ODEs</t>
   </si>
   <si>
     <t>Online</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>ICS/IIT/ISE 114: Test 1</t>
-  </si>
-  <si>
-    <t>04 November 2020</t>
-  </si>
-  <si>
-    <t>Linear Algebra, Logic</t>
-  </si>
-  <si>
-    <t>Electronic Hall</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>ICS/ISE 215: AS 2</t>
-  </si>
-  <si>
-    <t>13 November 2020</t>
-  </si>
-  <si>
-    <t>ICS/IIT/ISE 114: Test 2</t>
-  </si>
-  <si>
-    <t>19 November 2020</t>
-  </si>
-  <si>
-    <t>Combinatorics, Graphs, Trees</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>ICS/ISE 215: Quiz 1</t>
-  </si>
-  <si>
-    <t>26 November 2020</t>
-  </si>
-  <si>
-    <t>Decision Analysis</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SST 216: Assignment </t>
-  </si>
-  <si>
-    <t>01 December 2020</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ICS/ISE 215: Test 1</t>
-  </si>
-  <si>
-    <t>02 December 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer Programming, Transportation </t>
-  </si>
-  <si>
-    <t>N109</t>
-  </si>
-  <si>
-    <t>ICS/IIT/ISE 114: Test 3</t>
-  </si>
-  <si>
-    <t>09 December 2020</t>
-  </si>
-  <si>
-    <t>Number Theory</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>ICS/IIT/ISE 114: AS 1</t>
-  </si>
-  <si>
-    <t>10 December 2020</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>SST 216 Test 1</t>
-  </si>
-  <si>
-    <t>09 February 2021</t>
-  </si>
-  <si>
-    <t>SST 216 Test 2</t>
-  </si>
-  <si>
-    <t>23 February 2021</t>
   </si>
 </sst>
 </file>
@@ -152,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -167,11 +86,6 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -248,7 +162,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -263,9 +177,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -287,7 +198,6 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff212121"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1349,7 +1259,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1378,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
+    <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>5</v>
       </c>
@@ -1395,174 +1305,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="32.05" customHeight="1">
+    <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="4">
         <v>10</v>
       </c>
       <c r="B3" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="4">
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="4">
+      <c r="C4" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="D4" t="s" s="4">
         <v>16</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="4">
-        <v>8</v>
       </c>
       <c r="E4" t="s" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="32.05" customHeight="1">
+    <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="4">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="4">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" ht="32.05" customHeight="1">
-      <c r="A7" t="s" s="4">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s" s="4">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s" s="4">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s" s="4">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" t="s" s="4">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="32.05" customHeight="1">
-      <c r="A10" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="4">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="4">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
